--- a/biology/Médecine/Ligament_muqueux/Ligament_muqueux.xlsx
+++ b/biology/Médecine/Ligament_muqueux/Ligament_muqueux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament muqueux est un ligament intra-articulaire inconstant de l'articulation fémoro-tibiale[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament muqueux est un ligament intra-articulaire inconstant de l'articulation fémoro-tibiale,. 
 </t>
         </is>
       </c>
@@ -511,12 +523,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament muqueux est une lame ou un cordon fibreux qui relie le corps adipeux infrapatellaire à la fosse intercondylaire du fémur en descendant sur la face antérieure du ligament croisé antérieur. 
-Variation
-Le ligament muqueux est présent est présent dans 64% des cas[2].
-Il peut avoir la forme d'un cordon (65% des cas) ou d'une lame verticale (35% des cas)[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ligament_muqueux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_muqueux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament muqueux est présent est présent dans 64% des cas.
+Il peut avoir la forme d'un cordon (65% des cas) ou d'une lame verticale (35% des cas).
 </t>
         </is>
       </c>
